--- a/PricerAndQutation/OptionPricer_v2_20180118_night.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180118_night.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="193">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,13 @@
   </si>
   <si>
     <t>交易量（吨）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1810</t>
+  </si>
+  <si>
+    <t>rb1810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,6 +1540,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,47 +1558,38 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1613,8 +1620,17 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3728</v>
+        <stp/>
+        <stp>rb1810</stp>
+        <stp>LastPrice</stp>
+        <tr r="P11" s="1"/>
+        <tr r="P12" s="1"/>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>3926</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1918,7 +1934,7 @@
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C8" sqref="C8:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -2149,61 +2165,157 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="B9" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="116">
+        <v>43119</v>
+      </c>
+      <c r="E9" s="116">
+        <v>43189</v>
+      </c>
+      <c r="F9" s="115">
+        <v>3650</v>
+      </c>
+      <c r="G9" s="115">
+        <v>70</v>
+      </c>
+      <c r="H9" s="115">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="I9" s="115">
+        <v>0</v>
+      </c>
+      <c r="J9" s="115">
+        <v>0.19</v>
+      </c>
+      <c r="K9" s="115">
+        <v>82.749480015912013</v>
+      </c>
       <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
+      <c r="M9" s="115">
+        <v>0</v>
+      </c>
+      <c r="N9" s="167">
+        <v>82.749480015912013</v>
+      </c>
+      <c r="O9" s="115">
+        <v>3728</v>
+      </c>
+      <c r="P9" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="115">
+        <v>1</v>
+      </c>
+      <c r="R9" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
+      <c r="B10" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="116">
+        <v>43119</v>
+      </c>
+      <c r="E10" s="116">
+        <v>43189</v>
+      </c>
+      <c r="F10" s="115">
+        <v>3700</v>
+      </c>
+      <c r="G10" s="115">
+        <v>70</v>
+      </c>
+      <c r="H10" s="115">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="I10" s="115">
+        <v>0</v>
+      </c>
+      <c r="J10" s="115">
+        <v>0.19</v>
+      </c>
+      <c r="K10" s="115">
+        <v>104.91801880194794</v>
+      </c>
       <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
+      <c r="M10" s="115">
+        <v>0</v>
+      </c>
+      <c r="N10" s="167">
+        <v>104.91801880194794</v>
+      </c>
+      <c r="O10" s="115">
+        <v>3728</v>
+      </c>
+      <c r="P10" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="115">
+        <v>1</v>
+      </c>
+      <c r="R10" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="B11" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="116">
+        <v>43119</v>
+      </c>
+      <c r="E11" s="116">
+        <v>43189</v>
+      </c>
+      <c r="F11" s="115">
+        <v>3750</v>
+      </c>
+      <c r="G11" s="115">
+        <v>70</v>
+      </c>
+      <c r="H11" s="115">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="I11" s="115">
+        <v>0</v>
+      </c>
+      <c r="J11" s="115">
+        <v>0.19</v>
+      </c>
+      <c r="K11" s="115">
+        <v>130.42375876594815</v>
+      </c>
       <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
+      <c r="M11" s="115">
+        <v>0</v>
+      </c>
+      <c r="N11" s="167">
+        <v>130.42375876594815</v>
+      </c>
+      <c r="O11" s="115">
+        <v>3728</v>
+      </c>
+      <c r="P11" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="115">
+        <v>1</v>
+      </c>
+      <c r="R11" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="115"/>
@@ -2908,7 +3020,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
@@ -2925,63 +3037,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="181"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="G3" s="186" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="G3" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="L3" s="185" t="s">
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="L3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="Q3" s="186" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="G4" s="180" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="G4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="L4" s="180" t="s">
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="L4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="Q4" s="180" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="Q4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -2990,10 +3102,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="183"/>
+      <c r="H5" s="176"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3002,360 +3114,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="183" t="s">
+      <c r="Q5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="183"/>
+      <c r="R5" s="176"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="171" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="172"/>
-      <c r="G6" s="183" t="s">
+      <c r="E6" s="175"/>
+      <c r="G6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="L6" s="170" t="s">
+      <c r="H6" s="176"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
+      <c r="L6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171" t="s">
+      <c r="M6" s="173"/>
+      <c r="N6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="Q6" s="183" t="s">
+      <c r="O6" s="175"/>
+      <c r="Q6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="183"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="172"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="175"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="G7" s="183" t="s">
+      <c r="E7" s="175"/>
+      <c r="G7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
-      <c r="L7" s="170" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
+      <c r="L7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="171" t="s">
+      <c r="M7" s="173"/>
+      <c r="N7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="Q7" s="183" t="s">
+      <c r="O7" s="175"/>
+      <c r="Q7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="183"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="172"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="175"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171">
+      <c r="C8" s="173"/>
+      <c r="D8" s="174">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="G8" s="183" t="s">
+      <c r="E8" s="175"/>
+      <c r="G8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="L8" s="170" t="s">
+      <c r="H8" s="176"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
+      <c r="L8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="171">
+      <c r="M8" s="173"/>
+      <c r="N8" s="174">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="172"/>
-      <c r="Q8" s="183" t="s">
+      <c r="O8" s="175"/>
+      <c r="Q8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="183"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="172"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171" t="s">
+      <c r="C9" s="173"/>
+      <c r="D9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="G9" s="183" t="s">
+      <c r="E9" s="175"/>
+      <c r="G9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="183"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="L9" s="170" t="s">
+      <c r="H9" s="176"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="L9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="171" t="s">
+      <c r="M9" s="173"/>
+      <c r="N9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="172"/>
-      <c r="Q9" s="183" t="s">
+      <c r="O9" s="175"/>
+      <c r="Q9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="183"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="172"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="175"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="171">
+      <c r="C10" s="173"/>
+      <c r="D10" s="174">
         <v>43084</v>
       </c>
-      <c r="E10" s="172"/>
+      <c r="E10" s="175"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-      <c r="L10" s="170" t="s">
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="L10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171">
+      <c r="M10" s="173"/>
+      <c r="N10" s="174">
         <v>43084</v>
       </c>
-      <c r="O10" s="172"/>
+      <c r="O10" s="175"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="172"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="175"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171">
+      <c r="C11" s="173"/>
+      <c r="D11" s="174">
         <v>3935</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="G11" s="183" t="s">
+      <c r="E11" s="175"/>
+      <c r="G11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="L11" s="170" t="s">
+      <c r="H11" s="176"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="L11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="171">
+      <c r="M11" s="173"/>
+      <c r="N11" s="174">
         <v>3935</v>
       </c>
-      <c r="O11" s="172"/>
-      <c r="Q11" s="183" t="s">
+      <c r="O11" s="175"/>
+      <c r="Q11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="183"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="172"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="175"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171">
+      <c r="C12" s="173"/>
+      <c r="D12" s="174">
         <v>3800</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="G12" s="183" t="s">
+      <c r="E12" s="175"/>
+      <c r="G12" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
-      <c r="L12" s="170" t="s">
+      <c r="H12" s="176"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="L12" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="170"/>
-      <c r="N12" s="171">
+      <c r="M12" s="173"/>
+      <c r="N12" s="174">
         <v>3800</v>
       </c>
-      <c r="O12" s="172"/>
-      <c r="Q12" s="183" t="s">
+      <c r="O12" s="175"/>
+      <c r="Q12" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="183"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="172"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="175"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171">
+      <c r="C13" s="173"/>
+      <c r="D13" s="174">
         <v>61</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="G13" s="183" t="s">
+      <c r="E13" s="175"/>
+      <c r="G13" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="183"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="L13" s="170" t="s">
+      <c r="H13" s="176"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="L13" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="171">
+      <c r="M13" s="173"/>
+      <c r="N13" s="174">
         <v>3800</v>
       </c>
-      <c r="O13" s="172"/>
-      <c r="Q13" s="183" t="s">
+      <c r="O13" s="175"/>
+      <c r="Q13" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="183"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="172"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="175"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171" t="s">
+      <c r="C14" s="173"/>
+      <c r="D14" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="G14" s="183" t="s">
+      <c r="E14" s="175"/>
+      <c r="G14" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="183"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="170" t="s">
+      <c r="L14" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="171">
+      <c r="M14" s="173"/>
+      <c r="N14" s="174">
         <v>61</v>
       </c>
-      <c r="O14" s="172"/>
-      <c r="Q14" s="183" t="s">
+      <c r="O14" s="175"/>
+      <c r="Q14" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="183"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="172"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="175"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171">
+      <c r="C15" s="173"/>
+      <c r="D15" s="174">
         <v>5000</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="G15" s="183" t="s">
+      <c r="E15" s="175"/>
+      <c r="G15" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="183"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
-      <c r="L15" s="170" t="s">
+      <c r="H15" s="176"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
+      <c r="L15" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171" t="s">
+      <c r="M15" s="173"/>
+      <c r="N15" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="172"/>
-      <c r="Q15" s="183" t="s">
+      <c r="O15" s="175"/>
+      <c r="Q15" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="183"/>
+      <c r="R15" s="176"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176" t="s">
+      <c r="C16" s="179"/>
+      <c r="D16" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="G16" s="179" t="s">
+      <c r="E16" s="172"/>
+      <c r="G16" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
-      <c r="L16" s="170" t="s">
+      <c r="H16" s="170"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+      <c r="L16" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171">
+      <c r="M16" s="173"/>
+      <c r="N16" s="174">
         <v>5000</v>
       </c>
-      <c r="O16" s="172"/>
-      <c r="Q16" s="183" t="s">
+      <c r="O16" s="175"/>
+      <c r="Q16" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="183"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="172"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="175"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="175" t="s">
+      <c r="L17" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176" t="s">
+      <c r="M17" s="179"/>
+      <c r="N17" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="177"/>
-      <c r="Q17" s="179" t="s">
+      <c r="O17" s="172"/>
+      <c r="Q17" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="179"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="177"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="172"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3374,221 +3486,298 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="G22" s="180" t="s">
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="G22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="182"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="186"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="182"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
-      <c r="G24" s="170" t="s">
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="175"/>
+      <c r="G24" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="170"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="G25" s="170" t="s">
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="175"/>
+      <c r="G25" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="170"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="183"/>
       <c r="G26" s="111" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="G27" s="170" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="175"/>
+      <c r="G27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="170"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="172"/>
-      <c r="G28" s="170" t="s">
+      <c r="C28" s="173"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="175"/>
+      <c r="G28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="170"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="172"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="175"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="G29" s="170" t="s">
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="175"/>
+      <c r="G29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="170"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="G30" s="170" t="s">
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="175"/>
+      <c r="G30" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="170"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113"/>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="G31" s="170" t="s">
+      <c r="C31" s="173"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="175"/>
+      <c r="G31" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="170"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="G32" s="170" t="s">
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="175"/>
+      <c r="G32" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="170"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
     </row>
     <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
-      <c r="G33" s="170" t="s">
+      <c r="C33" s="173"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="183"/>
+      <c r="G33" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="170"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="175" t="s">
+      <c r="B34" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177"/>
-      <c r="G34" s="170" t="s">
+      <c r="C34" s="179"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="172"/>
+      <c r="G34" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="170"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
     </row>
     <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="175" t="s">
+      <c r="G35" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3613,106 +3802,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3724,8 +3836,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -3752,10 +3864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="181"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -3881,11 +3993,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E15" ca="1" si="0">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -3903,24 +4015,24 @@
       <c r="K8" s="23">
         <v>0.3</v>
       </c>
-      <c r="L8" s="24" t="e">
+      <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-204.58046622818165</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
       </c>
-      <c r="N8" s="24" t="e">
+      <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="24" t="e">
+        <v>2.5814794520547948</v>
+      </c>
+      <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="20" t="e">
+        <v>207.16194568023644</v>
+      </c>
+      <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3926</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -3932,17 +4044,17 @@
       <c r="S8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="26" t="e">
+      <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="24" t="e">
+        <v>5.2766669811573214E-2</v>
+      </c>
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V8" s="24" t="e">
+        <v>-0.66249755611806904</v>
+      </c>
+      <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-4.1002156201784601</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3958,11 +4070,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4021,99 +4133,302 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43119</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F13" ca="1" si="7">E10+H10</f>
+        <v>43189</v>
+      </c>
+      <c r="G10" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>70</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ref="I10:I13" si="8">H10/365</f>
+        <v>0.19178082191780821</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>2.2481192711691094</v>
+      </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="N10" s="13">
+        <f t="shared" ref="N10:N13" si="9">M10/10000*I10*P10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" ref="O10:O13" si="10">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
+        <v>2.2481192711691094</v>
+      </c>
+      <c r="P10" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" ref="R10:R13" si="11">IF(S10="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" ref="T10:T13" si="12">O10/P10</f>
+        <v>2.2481192711691092E-2</v>
+      </c>
+      <c r="U10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>0.39777091815480503</v>
+      </c>
+      <c r="V10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>0.16844460809689465</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="53"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43119</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>43189</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3650</v>
+      </c>
+      <c r="H11" s="10">
+        <v>70</v>
+      </c>
+      <c r="I11" s="12">
+        <f>(H11-5)/365</f>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>82.749480015912013</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="N11" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="10"/>
+        <v>82.749480015912013</v>
+      </c>
+      <c r="P11" s="11">
+        <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
+        <v>3728</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="12"/>
+        <v>2.2196748931306871E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>-0.37928422472077727</v>
+      </c>
+      <c r="V11" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>5.9712558906188633</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="53"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43119</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>43189</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3700</v>
+      </c>
+      <c r="H12" s="10">
+        <v>70</v>
+      </c>
+      <c r="I12" s="12">
+        <f>(H12-5)/365</f>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>104.91801880194794</v>
+      </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="N12" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="10"/>
+        <v>104.91801880194794</v>
+      </c>
+      <c r="P12" s="11">
+        <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
+        <v>3728</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" si="12"/>
+        <v>2.8143245386788609E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>-0.44506696192456729</v>
+      </c>
+      <c r="V12" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>6.19780418285211</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="53"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43119</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="7"/>
+        <v>43189</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3750</v>
+      </c>
+      <c r="H13" s="10">
+        <v>70</v>
+      </c>
+      <c r="I13" s="12">
+        <f>(H13-5)/365</f>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>130.42375876594815</v>
+      </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
+      <c r="N13" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="10"/>
+        <v>130.42375876594815</v>
+      </c>
+      <c r="P13" s="11">
+        <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
+        <v>3728</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="12"/>
+        <v>3.4984913832067636E-2</v>
+      </c>
+      <c r="U13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>-0.51145536064041153</v>
+      </c>
+      <c r="V13" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>6.2503613982966044</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="53"/>
@@ -4143,7 +4458,7 @@
       <c r="A15" s="53"/>
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="168"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
@@ -5387,7 +5702,7 @@
       <c r="B1" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="181"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -5518,11 +5833,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -5586,11 +5901,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -5654,11 +5969,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -6474,10 +6789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="184"/>
+      <c r="C1" s="181"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -6623,9 +6938,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3926</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -6633,20 +6948,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19" t="e">
+      <c r="K8" s="19">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <v>3854.5749992553683</v>
       </c>
       <c r="L8" s="55">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -6661,32 +6976,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24" t="e">
+      <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>#VALUE!</v>
+        <v>-78.52</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="24" t="e">
+        <v>2.5814794520547948</v>
+      </c>
+      <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W8" s="26" t="e">
+        <v>81.101479452054789</v>
+      </c>
+      <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X8" s="24" t="e">
+        <v>2.0657534246575342E-2</v>
+      </c>
+      <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6728,11 +7043,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43298</v>
+        <v>43299</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8557,20 +8872,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3926</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -8582,32 +8897,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>206.72473744111767</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="24" t="e">
+        <v>2.5814794520547948</v>
+      </c>
+      <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" s="26" t="e">
+        <v>209.30621689317246</v>
+      </c>
+      <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="24" t="e">
+        <v>5.3312841796528898E-2</v>
+      </c>
+      <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="24" t="e">
+        <v>0.6665196034418841</v>
+      </c>
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>4.0868590909431077</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8639,11 +8954,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -8709,11 +9024,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43119</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180118_night.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180118_night.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="197">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +703,24 @@
   <si>
     <t>交易量（吨）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金公司</t>
+  </si>
+  <si>
+    <t>亨通集团</t>
+  </si>
+  <si>
+    <t>看跌期权</t>
+  </si>
+  <si>
+    <t>cu1805</t>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>al1805</t>
   </si>
 </sst>
 </file>
@@ -711,23 +729,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="###,###,##0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="###,###,##0.0"/>
+    <numFmt numFmtId="164" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="###,###,##0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="###,###,##0.0"/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,21 +753,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -757,7 +775,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -765,7 +783,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,7 +804,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -795,7 +813,7 @@
       <b/>
       <sz val="10"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -804,7 +822,7 @@
       <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,7 +830,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,14 +839,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -843,7 +861,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -852,14 +870,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -867,13 +885,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,7 +899,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -889,7 +907,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -897,7 +915,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1284,8 +1302,8 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1293,9 +1311,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1328,9 +1346,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1359,25 +1377,25 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,17 +1497,17 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1497,11 +1515,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1509,11 +1527,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1521,8 +1539,8 @@
     <xf numFmtId="2" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1533,6 +1551,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,47 +1569,38 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,11 +1634,18 @@
       <tp t="e">
         <v>#N/A</v>
         <stp/>
+        <stp>al1805</stp>
+        <stp>LastPrice</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="8"/>
         <tr r="H8" s="7"/>
-        <tr r="H8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -1921,14 +1946,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="12.625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="12.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="6" customWidth="1"/>
+    <col min="7" max="13" width="12.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="6" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1939,7 +1964,7 @@
       <c r="C1" s="169"/>
       <c r="D1" s="169"/>
     </row>
-    <row r="2" spans="2:18" ht="12" thickTop="1"/>
+    <row r="2" spans="2:18" ht="12.6" thickTop="1"/>
     <row r="5" spans="2:18">
       <c r="B5" s="114" t="s">
         <v>2</v>
@@ -2661,21 +2686,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="9" style="6" customWidth="1"/>
     <col min="14" max="17" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="6" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2686,7 +2711,7 @@
       <c r="C1" s="169"/>
       <c r="D1" s="169"/>
     </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1"/>
+    <row r="2" spans="1:21" ht="12.6" thickTop="1"/>
     <row r="3" spans="1:21">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2707,7 +2732,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -2768,7 +2793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2790,7 +2815,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="12" thickBot="1">
+    <row r="7" spans="1:21" ht="12.6" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
@@ -2850,7 +2875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2908,92 +2933,92 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="6" customWidth="1"/>
     <col min="5" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="184" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1">
+      <c r="B1" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="184"/>
-    </row>
-    <row r="2" spans="2:20" ht="12" thickTop="1"/>
-    <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="185" t="s">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="3" spans="2:20" ht="14.4" thickBot="1">
+      <c r="B3" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="G3" s="186" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="G3" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="L3" s="185" t="s">
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="L3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="Q3" s="186" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="180" t="s">
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="G4" s="180" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="G4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="L4" s="180" t="s">
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="L4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="Q4" s="180" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="Q4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-    </row>
-    <row r="5" spans="2:20" ht="14.25" thickTop="1">
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickTop="1">
       <c r="B5" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="183"/>
+      <c r="H5" s="176"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3002,368 +3027,368 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="183" t="s">
+      <c r="Q5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="183"/>
+      <c r="R5" s="176"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="170" t="s">
+    <row r="6" spans="2:20" ht="14.4">
+      <c r="B6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="171" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="172"/>
-      <c r="G6" s="183" t="s">
+      <c r="E6" s="175"/>
+      <c r="G6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="183"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="L6" s="170" t="s">
+      <c r="H6" s="176"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
+      <c r="L6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171" t="s">
+      <c r="M6" s="173"/>
+      <c r="N6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="Q6" s="183" t="s">
+      <c r="O6" s="175"/>
+      <c r="Q6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="183"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="172"/>
-    </row>
-    <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="170" t="s">
+      <c r="R6" s="176"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="175"/>
+    </row>
+    <row r="7" spans="2:20" ht="14.4">
+      <c r="B7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="G7" s="183" t="s">
+      <c r="E7" s="175"/>
+      <c r="G7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
-      <c r="L7" s="170" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
+      <c r="L7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="171" t="s">
+      <c r="M7" s="173"/>
+      <c r="N7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="Q7" s="183" t="s">
+      <c r="O7" s="175"/>
+      <c r="Q7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="183"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="172"/>
-    </row>
-    <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="170" t="s">
+      <c r="R7" s="176"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="175"/>
+    </row>
+    <row r="8" spans="2:20" ht="14.4">
+      <c r="B8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="171">
+      <c r="C8" s="173"/>
+      <c r="D8" s="174">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="G8" s="183" t="s">
+      <c r="E8" s="175"/>
+      <c r="G8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="L8" s="170" t="s">
+      <c r="H8" s="176"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
+      <c r="L8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="171">
+      <c r="M8" s="173"/>
+      <c r="N8" s="174">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="172"/>
-      <c r="Q8" s="183" t="s">
+      <c r="O8" s="175"/>
+      <c r="Q8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="183"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="172"/>
-    </row>
-    <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="170" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175"/>
+    </row>
+    <row r="9" spans="2:20" ht="14.4">
+      <c r="B9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171" t="s">
+      <c r="C9" s="173"/>
+      <c r="D9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="G9" s="183" t="s">
+      <c r="E9" s="175"/>
+      <c r="G9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="183"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="L9" s="170" t="s">
+      <c r="H9" s="176"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="L9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="171" t="s">
+      <c r="M9" s="173"/>
+      <c r="N9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="172"/>
-      <c r="Q9" s="183" t="s">
+      <c r="O9" s="175"/>
+      <c r="Q9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="183"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="172"/>
-    </row>
-    <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="170" t="s">
+      <c r="R9" s="176"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="175"/>
+    </row>
+    <row r="10" spans="2:20" ht="14.4">
+      <c r="B10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="171">
+      <c r="C10" s="173"/>
+      <c r="D10" s="174">
         <v>43084</v>
       </c>
-      <c r="E10" s="172"/>
+      <c r="E10" s="175"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-      <c r="L10" s="170" t="s">
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="L10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171">
+      <c r="M10" s="173"/>
+      <c r="N10" s="174">
         <v>43084</v>
       </c>
-      <c r="O10" s="172"/>
+      <c r="O10" s="175"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="172"/>
-    </row>
-    <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="170" t="s">
+      <c r="S10" s="174"/>
+      <c r="T10" s="175"/>
+    </row>
+    <row r="11" spans="2:20" ht="14.4">
+      <c r="B11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171">
+      <c r="C11" s="173"/>
+      <c r="D11" s="174">
         <v>3935</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="G11" s="183" t="s">
+      <c r="E11" s="175"/>
+      <c r="G11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="L11" s="170" t="s">
+      <c r="H11" s="176"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="L11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="171">
+      <c r="M11" s="173"/>
+      <c r="N11" s="174">
         <v>3935</v>
       </c>
-      <c r="O11" s="172"/>
-      <c r="Q11" s="183" t="s">
+      <c r="O11" s="175"/>
+      <c r="Q11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="183"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="172"/>
-    </row>
-    <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="170" t="s">
+      <c r="R11" s="176"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="175"/>
+    </row>
+    <row r="12" spans="2:20" ht="14.4">
+      <c r="B12" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171">
+      <c r="C12" s="173"/>
+      <c r="D12" s="174">
         <v>3800</v>
       </c>
-      <c r="E12" s="172"/>
-      <c r="G12" s="183" t="s">
+      <c r="E12" s="175"/>
+      <c r="G12" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
-      <c r="L12" s="170" t="s">
+      <c r="H12" s="176"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="L12" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="170"/>
-      <c r="N12" s="171">
+      <c r="M12" s="173"/>
+      <c r="N12" s="174">
         <v>3800</v>
       </c>
-      <c r="O12" s="172"/>
-      <c r="Q12" s="183" t="s">
+      <c r="O12" s="175"/>
+      <c r="Q12" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="183"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="172"/>
-    </row>
-    <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="170" t="s">
+      <c r="R12" s="176"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="175"/>
+    </row>
+    <row r="13" spans="2:20" ht="14.4">
+      <c r="B13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171">
+      <c r="C13" s="173"/>
+      <c r="D13" s="174">
         <v>61</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="G13" s="183" t="s">
+      <c r="E13" s="175"/>
+      <c r="G13" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="183"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="L13" s="170" t="s">
+      <c r="H13" s="176"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="L13" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="171">
+      <c r="M13" s="173"/>
+      <c r="N13" s="174">
         <v>3800</v>
       </c>
-      <c r="O13" s="172"/>
-      <c r="Q13" s="183" t="s">
+      <c r="O13" s="175"/>
+      <c r="Q13" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="183"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="172"/>
-    </row>
-    <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="170" t="s">
+      <c r="R13" s="176"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="175"/>
+    </row>
+    <row r="14" spans="2:20" ht="14.4">
+      <c r="B14" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171" t="s">
+      <c r="C14" s="173"/>
+      <c r="D14" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="172"/>
-      <c r="G14" s="183" t="s">
+      <c r="E14" s="175"/>
+      <c r="G14" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="183"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="170" t="s">
+      <c r="L14" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="171">
+      <c r="M14" s="173"/>
+      <c r="N14" s="174">
         <v>61</v>
       </c>
-      <c r="O14" s="172"/>
-      <c r="Q14" s="183" t="s">
+      <c r="O14" s="175"/>
+      <c r="Q14" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="183"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="172"/>
-    </row>
-    <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="170" t="s">
+      <c r="R14" s="176"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="175"/>
+    </row>
+    <row r="15" spans="2:20" ht="14.4">
+      <c r="B15" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171">
+      <c r="C15" s="173"/>
+      <c r="D15" s="174">
         <v>5000</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="G15" s="183" t="s">
+      <c r="E15" s="175"/>
+      <c r="G15" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="183"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
-      <c r="L15" s="170" t="s">
+      <c r="H15" s="176"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
+      <c r="L15" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171" t="s">
+      <c r="M15" s="173"/>
+      <c r="N15" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="172"/>
-      <c r="Q15" s="183" t="s">
+      <c r="O15" s="175"/>
+      <c r="Q15" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="183"/>
+      <c r="R15" s="176"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="175" t="s">
+    <row r="16" spans="2:20" ht="15" thickBot="1">
+      <c r="B16" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176" t="s">
+      <c r="C16" s="179"/>
+      <c r="D16" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="G16" s="179" t="s">
+      <c r="E16" s="172"/>
+      <c r="G16" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
-      <c r="L16" s="170" t="s">
+      <c r="H16" s="170"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+      <c r="L16" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171">
+      <c r="M16" s="173"/>
+      <c r="N16" s="174">
         <v>5000</v>
       </c>
-      <c r="O16" s="172"/>
-      <c r="Q16" s="183" t="s">
+      <c r="O16" s="175"/>
+      <c r="Q16" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="183"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="172"/>
-    </row>
-    <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="175" t="s">
+      <c r="R16" s="176"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="175"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="L17" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176" t="s">
+      <c r="M17" s="179"/>
+      <c r="N17" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="177"/>
-      <c r="Q17" s="179" t="s">
+      <c r="O17" s="172"/>
+      <c r="Q17" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="179"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="177"/>
-    </row>
-    <row r="18" spans="2:20" ht="12" thickTop="1"/>
-    <row r="19" spans="2:20" ht="13.5">
+      <c r="R17" s="170"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="172"/>
+    </row>
+    <row r="18" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="19" spans="2:20" ht="14.4">
       <c r="B19" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="12" thickBot="1">
+    <row r="21" spans="2:20" ht="12.6" thickBot="1">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3373,222 +3398,325 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="180" t="s">
+    <row r="22" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="G22" s="180" t="s">
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="G22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-    </row>
-    <row r="23" spans="2:20" ht="14.25" thickTop="1">
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="182"/>
+      <c r="D23" s="185">
+        <v>43123</v>
+      </c>
+      <c r="E23" s="186"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="182"/>
-    </row>
-    <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="170" t="s">
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+    </row>
+    <row r="24" spans="2:20" ht="14.4">
+      <c r="B24" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
-      <c r="G24" s="170" t="s">
+      <c r="C24" s="173"/>
+      <c r="D24" s="174" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="175"/>
+      <c r="G24" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="170"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
-    </row>
-    <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="170" t="s">
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
+    </row>
+    <row r="25" spans="2:20" ht="14.4">
+      <c r="B25" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="G25" s="170" t="s">
+      <c r="C25" s="173"/>
+      <c r="D25" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="175"/>
+      <c r="G25" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="170"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
-    </row>
-    <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="170" t="s">
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
+    </row>
+    <row r="26" spans="2:20" ht="14.4">
+      <c r="B26" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="182">
+        <f>D33*D31</f>
+        <v>50000</v>
+      </c>
+      <c r="E26" s="183"/>
       <c r="G26" s="111" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
-    </row>
-    <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="170" t="s">
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
+    </row>
+    <row r="27" spans="2:20" ht="14.4">
+      <c r="B27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="G27" s="170" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="175"/>
+      <c r="G27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="170"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
-    </row>
-    <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="170" t="s">
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+    </row>
+    <row r="28" spans="2:20" ht="14.4">
+      <c r="B28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="172"/>
-      <c r="G28" s="170" t="s">
+      <c r="C28" s="173"/>
+      <c r="D28" s="184">
+        <f>D23+60</f>
+        <v>43183</v>
+      </c>
+      <c r="E28" s="175"/>
+      <c r="G28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="170"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="172"/>
-    </row>
-    <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="170" t="s">
+      <c r="H28" s="173"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="175"/>
+    </row>
+    <row r="29" spans="2:20" ht="14.4">
+      <c r="B29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="G29" s="170" t="s">
+      <c r="C29" s="173"/>
+      <c r="D29" s="174">
+        <v>54000</v>
+      </c>
+      <c r="E29" s="175"/>
+      <c r="G29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="170"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
-    </row>
-    <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="170" t="s">
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
+    </row>
+    <row r="30" spans="2:20" ht="14.4">
+      <c r="B30" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="G30" s="170" t="s">
+      <c r="C30" s="173"/>
+      <c r="D30" s="174">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="175"/>
+      <c r="G30" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="170"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="170" t="s">
+    <row r="31" spans="2:20" ht="14.4">
+      <c r="B31" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="G31" s="170" t="s">
+      <c r="C31" s="173"/>
+      <c r="D31" s="174">
+        <v>100</v>
+      </c>
+      <c r="E31" s="175"/>
+      <c r="G31" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="170"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
-    </row>
-    <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="170" t="s">
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
+    </row>
+    <row r="32" spans="2:20" ht="14.4">
+      <c r="B32" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="G32" s="170" t="s">
+      <c r="C32" s="173"/>
+      <c r="D32" s="174" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="175"/>
+      <c r="G32" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="170"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
-    </row>
-    <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="170" t="s">
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.4">
+      <c r="B33" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
-      <c r="G33" s="170" t="s">
+      <c r="C33" s="173"/>
+      <c r="D33" s="182">
+        <v>500</v>
+      </c>
+      <c r="E33" s="183"/>
+      <c r="G33" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="170"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="175" t="s">
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1">
+      <c r="B34" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177"/>
-      <c r="G34" s="170" t="s">
+      <c r="C34" s="179"/>
+      <c r="D34" s="171" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="172"/>
+      <c r="G34" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="170"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="175" t="s">
+      <c r="H34" s="173"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="G35" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
-    </row>
-    <row r="36" spans="2:10" ht="12" thickTop="1"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
+    </row>
+    <row r="36" spans="2:10" ht="12.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3613,106 +3741,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3724,40 +3775,40 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="8.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="6" customWidth="1"/>
     <col min="14" max="14" width="10" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="6.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="6.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="21" width="9" style="6"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="184"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3781,8 +3832,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3805,7 +3856,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -3868,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" thickTop="1">
+    <row r="8" spans="1:22" ht="12.6" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -3880,12 +3931,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E15" ca="1" si="0">TODAY()</f>
-        <v>43118</v>
+        <f t="shared" ref="E8:E11" ca="1" si="0">TODAY()</f>
+        <v>43123</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -3904,8 +3955,8 @@
         <v>0.3</v>
       </c>
       <c r="L8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
@@ -3915,8 +3966,8 @@
         <v>#N/A</v>
       </c>
       <c r="O8" s="24" t="e">
-        <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="O8:O9" ca="1" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="20" t="e">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
@@ -3933,16 +3984,16 @@
         <v>31</v>
       </c>
       <c r="T8" s="26" t="e">
-        <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="T8:T9" ca="1" si="6">O8/P8</f>
+        <v>#NAME?</v>
       </c>
       <c r="U8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
       </c>
       <c r="V8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3958,11 +4009,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43150</v>
+        <v>43155</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -3980,18 +4031,18 @@
       <c r="K9" s="9">
         <v>0.17</v>
       </c>
-      <c r="L9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>1.0209659960206068</v>
+      <c r="L9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0209659960206068</v>
+      <c r="O9" s="13" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="11">
         <v>100</v>
@@ -4006,66 +4057,167 @@
       <c r="S9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T9" s="14">
-        <f t="shared" si="6"/>
-        <v>1.0209659960206069E-2</v>
-      </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>0.32026444001047594</v>
-      </c>
-      <c r="V9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>0.10577397020897372</v>
+      <c r="T9" s="14" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10" ca="1" si="7">E10+H10</f>
+        <v>43155</v>
+      </c>
+      <c r="G10" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ref="I10" si="8">H10/365</f>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
+      </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="N10" s="13">
+        <f t="shared" ref="N10" si="9">M10/10000*I10*P10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="13" t="e">
+        <f t="shared" ref="O10" ca="1" si="10">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P10" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" ref="R10" si="11">IF(S10="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T10" s="14" t="e">
+        <f t="shared" ref="T10" ca="1" si="12">O10/P10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="53"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43123</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" ca="1" si="13">E11+H11</f>
+        <v>43201</v>
+      </c>
+      <c r="G11" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>78</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11" si="14">H11/365</f>
+        <v>0.21369863013698631</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L11" s="13" t="e">
+        <f ca="1">dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="N11" s="13" t="e">
+        <f t="shared" ref="N11" si="15">M11/10000*I11*P11</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="13" t="e">
+        <f t="shared" ref="O11" ca="1" si="16">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P11" s="11" t="e">
+        <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" ref="R11" si="17">IF(S11="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="14" t="e">
+        <f t="shared" ref="T11" ca="1" si="18">O11/P11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U11" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V11" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="53"/>
@@ -5323,7 +5475,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
@@ -5357,29 +5509,29 @@
       <selection activeCell="G11" sqref="A11:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="8.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="6"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="20" width="9" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -5387,9 +5539,9 @@
       <c r="B1" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="184"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5557,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
@@ -5413,8 +5565,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -5437,7 +5589,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="39"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>29</v>
@@ -5501,7 +5653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" thickTop="1">
+    <row r="8" spans="1:22" ht="15" thickTop="1">
       <c r="A8" s="61"/>
       <c r="B8" s="62" t="s">
         <v>173</v>
@@ -5518,11 +5670,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -5540,15 +5692,15 @@
       <c r="L8" s="67">
         <v>0.32</v>
       </c>
-      <c r="M8" s="62">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-3.6526499295562971</v>
+      <c r="M8" s="62" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="68"/>
       <c r="O8" s="62"/>
-      <c r="P8" s="62">
-        <f>M8+O8</f>
-        <v>-3.6526499295562971</v>
+      <c r="P8" s="62" t="e">
+        <f ca="1">M8+O8</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q8" s="64">
         <v>100</v>
@@ -5560,16 +5712,16 @@
         <v>20</v>
       </c>
       <c r="T8" s="69"/>
-      <c r="U8" s="62">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-0.51744199617651532</v>
-      </c>
-      <c r="V8" s="62">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-0.11406523569462124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.5">
+      <c r="U8" s="62" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V8" s="62" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="61"/>
       <c r="B9" s="70" t="s">
         <v>174</v>
@@ -5586,11 +5738,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -5610,15 +5762,15 @@
       <c r="L9" s="75">
         <v>0.3</v>
       </c>
-      <c r="M9" s="70">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>3.4245046917201378</v>
+      <c r="M9" s="70" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="76"/>
       <c r="O9" s="70"/>
-      <c r="P9" s="70">
-        <f>M9+O9</f>
-        <v>3.4245046917201378</v>
+      <c r="P9" s="70" t="e">
+        <f ca="1">M9+O9</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q9" s="72">
         <v>100</v>
@@ -5630,16 +5782,16 @@
         <v>151</v>
       </c>
       <c r="T9" s="77"/>
-      <c r="U9" s="70">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>0.51630126926376363</v>
-      </c>
-      <c r="V9" s="70">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>0.11407976820886745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.5">
+      <c r="U9" s="70" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="70" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="61"/>
       <c r="B10" s="78" t="s">
         <v>175</v>
@@ -5654,11 +5806,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -5674,9 +5826,9 @@
       </c>
       <c r="K10" s="82"/>
       <c r="L10" s="79"/>
-      <c r="M10" s="78">
-        <f>M9+M8</f>
-        <v>-0.22814523783615925</v>
+      <c r="M10" s="78" t="e">
+        <f ca="1">M9+M8</f>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="79">
         <v>80</v>
@@ -5685,9 +5837,9 @@
         <f>N10/10000*J10*Q10</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="P10" s="78">
-        <f>IF(M10&lt;=0,ABS(M10)+O10,M10-O10)</f>
-        <v>0.29389866249369351</v>
+      <c r="P10" s="78" t="e">
+        <f ca="1">IF(M10&lt;=0,ABS(M10)+O10,M10-O10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q10" s="80">
         <f>Q9</f>
@@ -5697,20 +5849,20 @@
       <c r="S10" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="83">
-        <f>P10/Q10</f>
-        <v>2.9389866249369349E-3</v>
-      </c>
-      <c r="U10" s="83">
-        <f t="shared" ref="U10:V10" si="1">U9+U8</f>
-        <v>-1.1407269127516884E-3</v>
-      </c>
-      <c r="V10" s="83">
-        <f t="shared" si="1"/>
-        <v>1.4532514246212713E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="13.5">
+      <c r="T10" s="83" t="e">
+        <f ca="1">P10/Q10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="83" t="e">
+        <f t="shared" ref="U10:V10" ca="1" si="1">U9+U8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V10" s="83" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="84"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -5734,7 +5886,7 @@
       <c r="U11" s="70"/>
       <c r="V11" s="70"/>
     </row>
-    <row r="12" spans="1:22" ht="13.5">
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="84"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -5758,7 +5910,7 @@
       <c r="U12" s="70"/>
       <c r="V12" s="70"/>
     </row>
-    <row r="13" spans="1:22" ht="13.5">
+    <row r="13" spans="1:22" ht="14.4">
       <c r="A13" s="84"/>
       <c r="B13" s="78"/>
       <c r="C13" s="79"/>
@@ -5782,7 +5934,7 @@
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
     </row>
-    <row r="14" spans="1:22" ht="13.5">
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="84"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -5806,7 +5958,7 @@
       <c r="U14" s="70"/>
       <c r="V14" s="70"/>
     </row>
-    <row r="15" spans="1:22" ht="13.5">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="84"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -5830,7 +5982,7 @@
       <c r="U15" s="70"/>
       <c r="V15" s="70"/>
     </row>
-    <row r="16" spans="1:22" ht="13.5">
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="84"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -5854,7 +6006,7 @@
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
     </row>
-    <row r="17" spans="1:22" ht="13.5">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="84"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -5878,7 +6030,7 @@
       <c r="U17" s="70"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="1:22" ht="13.5">
+    <row r="18" spans="1:22" ht="14.4">
       <c r="A18" s="84"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -5902,7 +6054,7 @@
       <c r="U18" s="70"/>
       <c r="V18" s="70"/>
     </row>
-    <row r="19" spans="1:22" ht="14.25" thickBot="1">
+    <row r="19" spans="1:22" ht="15" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="126"/>
       <c r="C19" s="127"/>
@@ -5926,7 +6078,7 @@
       <c r="U19" s="132"/>
       <c r="V19" s="132"/>
     </row>
-    <row r="20" spans="1:22" s="144" customFormat="1" ht="13.5">
+    <row r="20" spans="1:22" s="144" customFormat="1" ht="14.4">
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
       <c r="C20" s="136"/>
@@ -5950,7 +6102,7 @@
       <c r="U20" s="135"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="21" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A21" s="145"/>
       <c r="B21" s="70"/>
       <c r="C21" s="71"/>
@@ -5974,7 +6126,7 @@
       <c r="U21" s="70"/>
       <c r="V21" s="70"/>
     </row>
-    <row r="22" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="22" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A22" s="145"/>
       <c r="B22" s="78"/>
       <c r="C22" s="79"/>
@@ -5998,7 +6150,7 @@
       <c r="U22" s="83"/>
       <c r="V22" s="83"/>
     </row>
-    <row r="23" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="23" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A23" s="145"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -6022,7 +6174,7 @@
       <c r="U23" s="70"/>
       <c r="V23" s="70"/>
     </row>
-    <row r="24" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="24" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A24" s="145"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -6046,7 +6198,7 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
     </row>
-    <row r="25" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="25" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A25" s="145"/>
       <c r="B25" s="78"/>
       <c r="C25" s="79"/>
@@ -6070,7 +6222,7 @@
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
     </row>
-    <row r="26" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="26" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -6094,7 +6246,7 @@
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
     </row>
-    <row r="27" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="27" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A27" s="145"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -6118,7 +6270,7 @@
       <c r="U27" s="70"/>
       <c r="V27" s="70"/>
     </row>
-    <row r="28" spans="1:22" s="133" customFormat="1" ht="14.25" thickBot="1">
+    <row r="28" spans="1:22" s="133" customFormat="1" ht="15" thickBot="1">
       <c r="A28" s="145"/>
       <c r="B28" s="126"/>
       <c r="C28" s="127"/>
@@ -6142,7 +6294,7 @@
       <c r="U28" s="132"/>
       <c r="V28" s="132"/>
     </row>
-    <row r="29" spans="1:22" s="156" customFormat="1" ht="13.5">
+    <row r="29" spans="1:22" s="156" customFormat="1" ht="14.4">
       <c r="A29" s="146"/>
       <c r="B29" s="147"/>
       <c r="C29" s="148"/>
@@ -6166,7 +6318,7 @@
       <c r="U29" s="147"/>
       <c r="V29" s="147"/>
     </row>
-    <row r="30" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="30" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A30" s="157"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -6190,7 +6342,7 @@
       <c r="U30" s="70"/>
       <c r="V30" s="70"/>
     </row>
-    <row r="31" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="31" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A31" s="157"/>
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
@@ -6214,7 +6366,7 @@
       <c r="U31" s="83"/>
       <c r="V31" s="83"/>
     </row>
-    <row r="32" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="32" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A32" s="157"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -6238,7 +6390,7 @@
       <c r="U32" s="70"/>
       <c r="V32" s="70"/>
     </row>
-    <row r="33" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="33" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A33" s="157"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -6262,7 +6414,7 @@
       <c r="U33" s="70"/>
       <c r="V33" s="70"/>
     </row>
-    <row r="34" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="34" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A34" s="157"/>
       <c r="B34" s="78"/>
       <c r="C34" s="79"/>
@@ -6286,7 +6438,7 @@
       <c r="U34" s="83"/>
       <c r="V34" s="83"/>
     </row>
-    <row r="35" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="35" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A35" s="157"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -6310,7 +6462,7 @@
       <c r="U35" s="70"/>
       <c r="V35" s="70"/>
     </row>
-    <row r="36" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="36" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A36" s="157"/>
       <c r="B36" s="70"/>
       <c r="C36" s="71"/>
@@ -6334,7 +6486,7 @@
       <c r="U36" s="70"/>
       <c r="V36" s="70"/>
     </row>
-    <row r="37" spans="1:22" s="166" customFormat="1" ht="14.25" thickBot="1">
+    <row r="37" spans="1:22" s="166" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="158"/>
       <c r="B37" s="159"/>
       <c r="C37" s="160"/>
@@ -6452,34 +6604,34 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="10" width="9" style="6"/>
     <col min="11" max="11" width="8" style="6" customWidth="1"/>
     <col min="12" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="8.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="6" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="7.25" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="9" style="6"/>
-    <col min="20" max="20" width="10.125" style="6" customWidth="1"/>
-    <col min="21" max="22" width="6.5" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="6" customWidth="1"/>
+    <col min="21" max="22" width="6.44140625" style="6" customWidth="1"/>
     <col min="23" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" style="6" customWidth="1"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="184"/>
-    </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:25" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6495,7 +6647,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1">
+    <row r="4" spans="1:25" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -6503,8 +6655,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1">
+    <row r="5" spans="1:25" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:25" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -6530,7 +6682,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -6602,7 +6754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
+    <row r="8" spans="1:25" ht="12.6" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -6634,19 +6786,19 @@
         <v>3890</v>
       </c>
       <c r="K8" s="19" t="e">
-        <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="55">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -6662,8 +6814,8 @@
         <v>0.3</v>
       </c>
       <c r="S8" s="24" t="e">
-        <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
@@ -6673,20 +6825,20 @@
         <v>#N/A</v>
       </c>
       <c r="V8" s="24" t="e">
-        <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="W8" s="26" t="e">
-        <f>V8/H8</f>
-        <v>#VALUE!</v>
+        <f ca="1">V8/H8</f>
+        <v>#NAME?</v>
       </c>
       <c r="X8" s="24" t="e">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Y8" s="24" t="e">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6719,20 +6871,20 @@
       <c r="J9" s="10">
         <v>110</v>
       </c>
-      <c r="K9" s="10">
-        <f>_xll.dnetDiscreteAdjustedBarrier($H9,$J9,$R9,1/365)</f>
-        <v>111.01094156493576</v>
+      <c r="K9" s="10" t="e">
+        <f ca="1">_xll.dnetDiscreteAdjustedBarrier($H9,$J9,$R9,1/365)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="56">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43298</v>
+        <v>43303</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -6747,9 +6899,9 @@
       <c r="R9" s="9">
         <v>0.3</v>
       </c>
-      <c r="S9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("price",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)*E9</f>
-        <v>-0.39957595854158601</v>
+      <c r="S9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("price",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)*E9</f>
+        <v>#NAME?</v>
       </c>
       <c r="T9" s="15">
         <v>80</v>
@@ -6758,21 +6910,21 @@
         <f>T9/10000*P9*H9</f>
         <v>0.39452054794520547</v>
       </c>
-      <c r="V9" s="13">
-        <f>IF(S9&lt;=0,ABS(S9)+U9,S9-U9)</f>
-        <v>0.79409650648679153</v>
-      </c>
-      <c r="W9" s="14">
-        <f>V9/H9</f>
-        <v>7.9409650648679161E-3</v>
-      </c>
-      <c r="X9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
-        <v>1.0164007825252952E-2</v>
-      </c>
-      <c r="Y9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
-        <v>-4.1771721369176229E-3</v>
+      <c r="V9" s="13" t="e">
+        <f ca="1">IF(S9&lt;=0,ABS(S9)+U9,S9-U9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W9" s="14" t="e">
+        <f ca="1">V9/H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("delta",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("vega",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7603,12 +7755,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="85">
         <v>43087</v>
       </c>
@@ -7622,7 +7774,7 @@
       </c>
       <c r="F1" s="88"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="89" t="s">
         <v>51</v>
       </c>
@@ -7642,7 +7794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="93" t="s">
         <v>57</v>
       </c>
@@ -7662,7 +7814,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="89" t="s">
         <v>59</v>
       </c>
@@ -7682,7 +7834,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="93" t="s">
         <v>61</v>
       </c>
@@ -7694,7 +7846,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="100"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="89" t="s">
         <v>63</v>
       </c>
@@ -7714,7 +7866,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="93" t="s">
         <v>65</v>
       </c>
@@ -7734,7 +7886,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="89" t="s">
         <v>67</v>
       </c>
@@ -7754,7 +7906,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="93" t="s">
         <v>69</v>
       </c>
@@ -7774,7 +7926,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="89" t="s">
         <v>71</v>
       </c>
@@ -7794,7 +7946,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="93" t="s">
         <v>73</v>
       </c>
@@ -7814,7 +7966,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="89" t="s">
         <v>75</v>
       </c>
@@ -7834,7 +7986,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="93" t="s">
         <v>77</v>
       </c>
@@ -7854,7 +8006,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="89" t="s">
         <v>79</v>
       </c>
@@ -7874,7 +8026,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="29.4" thickBot="1">
       <c r="A15" s="93" t="s">
         <v>81</v>
       </c>
@@ -7886,7 +8038,7 @@
       <c r="E15" s="96"/>
       <c r="F15" s="100"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="89" t="s">
         <v>83</v>
       </c>
@@ -7906,7 +8058,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="93" t="s">
         <v>85</v>
       </c>
@@ -7926,7 +8078,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="89" t="s">
         <v>87</v>
       </c>
@@ -7938,7 +8090,7 @@
       <c r="E18" s="105"/>
       <c r="F18" s="106"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="93" t="s">
         <v>89</v>
       </c>
@@ -7950,7 +8102,7 @@
       <c r="E19" s="96"/>
       <c r="F19" s="100"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>91</v>
       </c>
@@ -7970,7 +8122,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="93" t="s">
         <v>93</v>
       </c>
@@ -7982,7 +8134,7 @@
       <c r="E21" s="96"/>
       <c r="F21" s="100"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="89" t="s">
         <v>95</v>
       </c>
@@ -8002,7 +8154,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="93" t="s">
         <v>97</v>
       </c>
@@ -8022,7 +8174,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="89" t="s">
         <v>39</v>
       </c>
@@ -8042,7 +8194,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="93" t="s">
         <v>100</v>
       </c>
@@ -8062,7 +8214,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="89" t="s">
         <v>102</v>
       </c>
@@ -8082,7 +8234,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="93" t="s">
         <v>104</v>
       </c>
@@ -8094,7 +8246,7 @@
       <c r="E27" s="107"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="89" t="s">
         <v>106</v>
       </c>
@@ -8106,7 +8258,7 @@
       <c r="E28" s="109"/>
       <c r="F28" s="110"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="93" t="s">
         <v>108</v>
       </c>
@@ -8126,7 +8278,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="89" t="s">
         <v>110</v>
       </c>
@@ -8146,7 +8298,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="93" t="s">
         <v>112</v>
       </c>
@@ -8158,7 +8310,7 @@
       <c r="E31" s="96"/>
       <c r="F31" s="100"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="89" t="s">
         <v>114</v>
       </c>
@@ -8178,7 +8330,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" s="93" t="s">
         <v>116</v>
       </c>
@@ -8213,7 +8365,7 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -8405,21 +8557,21 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="6" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.44140625" style="6" customWidth="1"/>
     <col min="19" max="20" width="9" style="6"/>
-    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -8429,7 +8581,7 @@
       </c>
       <c r="C1" s="188"/>
     </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1">
+    <row r="2" spans="1:21" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8445,7 +8597,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -8453,8 +8605,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1"/>
-    <row r="6" spans="1:21" ht="12" thickBot="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:21" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -8476,7 +8628,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -8536,7 +8688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -8566,11 +8718,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -8583,8 +8735,8 @@
         <v>0.3</v>
       </c>
       <c r="O8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
@@ -8594,20 +8746,20 @@
         <v>#N/A</v>
       </c>
       <c r="R8" s="24" t="e">
-        <f>O8+Q8</f>
-        <v>#VALUE!</v>
+        <f ca="1">O8+Q8</f>
+        <v>#NAME?</v>
       </c>
       <c r="S8" s="26" t="e">
-        <f>R8/H8</f>
-        <v>#VALUE!</v>
+        <f ca="1">R8/H8</f>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U8" s="24" t="e">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8639,11 +8791,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -8655,9 +8807,9 @@
       <c r="N9" s="9">
         <v>0.3</v>
       </c>
-      <c r="O9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>3.4671141943048909</v>
+      <c r="O9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="15">
         <v>80</v>
@@ -8666,21 +8818,21 @@
         <f>P9/10000*M9*H9*(-E9)</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R9" s="13">
-        <f>O9+Q9</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S9" s="14">
-        <f>R9/H9</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>0.11412144299254479</v>
+      <c r="R9" s="13" t="e">
+        <f ca="1">O9+Q9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="14" t="e">
+        <f ca="1">R9/H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -8709,11 +8861,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43118</v>
+        <v>43123</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43148</v>
+        <v>43153</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -8725,9 +8877,9 @@
       <c r="N10" s="9">
         <v>0.3</v>
       </c>
-      <c r="O10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>3.4671141943048909</v>
+      <c r="O10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P10" s="15">
         <v>80</v>
@@ -8736,21 +8888,21 @@
         <f>P10/10000*M10*H10*(-E10)</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R10" s="13">
-        <f>O10+Q10</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S10" s="14">
-        <f>R10/H10</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>0.11412144299254479</v>
+      <c r="R10" s="13" t="e">
+        <f ca="1">O10+Q10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="14" t="e">
+        <f ca="1">R10/H10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:21">
